--- a/SuRGE_Sharepoint/data/CIN/CH4_083_monroe/dataSheets/surgeData083.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_083_monroe/dataSheets/surgeData083.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_083_monroe/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_083_monroe/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{AC80D6C0-4603-4B7F-B9FE-01BAE527EB56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{A381F8F1-3443-4C5E-8ACD-C3E15139F77B}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{AC80D6C0-4603-4B7F-B9FE-01BAE527EB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D568DD19-571D-4C49-9EFD-84B118FF5C22}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1351,9 +1351,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1391,7 +1391,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1497,7 +1497,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1639,7 +1639,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1649,80 +1649,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A19" sqref="A19:XFD22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BJ13" sqref="BJ13:BL13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="18" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>54</v>
       </c>
@@ -1804,7 +1803,7 @@
       <c r="BO1" s="36"/>
       <c r="BP1" s="36"/>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2010,7 +2009,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>160</v>
       </c>
@@ -2116,15 +2115,6 @@
       <c r="BG3" t="s">
         <v>178</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>182</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>184</v>
-      </c>
       <c r="BM3">
         <v>1.7485999999999999</v>
       </c>
@@ -2138,7 +2128,7 @@
         <v>0.81736111111111109</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>160</v>
       </c>
@@ -2254,7 +2244,7 @@
         <v>0.77986111111111101</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>160</v>
       </c>
@@ -2358,7 +2348,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>160</v>
       </c>
@@ -2462,7 +2452,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>160</v>
       </c>
@@ -2566,7 +2556,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>160</v>
       </c>
@@ -2673,7 +2663,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>160</v>
       </c>
@@ -2777,7 +2767,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>160</v>
       </c>
@@ -2881,7 +2871,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>160</v>
       </c>
@@ -2964,7 +2954,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>160</v>
       </c>
@@ -3071,7 +3061,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>160</v>
       </c>
@@ -3174,8 +3164,17 @@
       <c r="BG13" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="BJ13" t="s">
+        <v>182</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>183</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>160</v>
       </c>
@@ -3279,7 +3278,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>160</v>
       </c>
@@ -3386,7 +3385,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>160</v>
       </c>
@@ -3490,7 +3489,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>160</v>
       </c>
@@ -3594,7 +3593,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>160</v>
       </c>
@@ -3707,7 +3706,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>160</v>
       </c>
@@ -3790,7 +3789,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>160</v>
       </c>
@@ -3873,7 +3872,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>160</v>
       </c>
@@ -3977,7 +3976,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>160</v>
       </c>
@@ -4107,14 +4106,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7265625" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.77734375" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -4125,7 +4124,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4136,7 +4135,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4147,7 +4146,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -4158,7 +4157,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4169,7 +4168,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -4180,7 +4179,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4191,7 +4190,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4202,7 +4201,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -4213,7 +4212,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4235,7 +4234,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -4246,7 +4245,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -4257,7 +4256,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4265,7 +4264,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -4276,7 +4275,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4284,7 +4283,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -4295,7 +4294,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4303,7 +4302,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -4314,7 +4313,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4325,7 +4324,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -4336,7 +4335,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -4347,7 +4346,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -4358,7 +4357,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4369,7 +4368,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4380,7 +4379,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4391,7 +4390,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4402,7 +4401,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4413,7 +4412,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4424,7 +4423,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -4435,7 +4434,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -4446,7 +4445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -4454,7 +4453,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -4462,7 +4461,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -4470,7 +4469,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -4478,7 +4477,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>153</v>
       </c>
@@ -4486,7 +4485,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>158</v>
       </c>
@@ -4502,7 +4501,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -4510,7 +4509,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>144</v>
       </c>
@@ -4518,7 +4517,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>145</v>
       </c>
@@ -4526,7 +4525,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -4534,7 +4533,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>146</v>
       </c>
@@ -4542,7 +4541,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -4553,7 +4552,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -4564,7 +4563,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -4575,7 +4574,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -4597,7 +4596,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>155</v>
       </c>
@@ -4608,7 +4607,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -4619,7 +4618,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -4627,7 +4626,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -4635,7 +4634,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -4643,7 +4642,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -4651,7 +4650,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>156</v>
       </c>
@@ -4659,7 +4658,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -4667,7 +4666,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>147</v>
       </c>
@@ -4675,7 +4674,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>148</v>
       </c>
@@ -4683,7 +4682,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>149</v>
       </c>
@@ -4691,7 +4690,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>150</v>
       </c>
@@ -4699,7 +4698,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>157</v>
       </c>
@@ -4707,7 +4706,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>151</v>
       </c>
@@ -4715,7 +4714,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -4726,7 +4725,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -4737,7 +4736,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -4748,7 +4747,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -4759,7 +4758,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -4783,17 +4782,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="25"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>59</v>
       </c>
@@ -4809,7 +4808,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -4843,7 +4842,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>160</v>
       </c>
@@ -4875,7 +4874,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>160</v>
       </c>
@@ -4907,7 +4906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>160</v>
       </c>
@@ -4939,7 +4938,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>160</v>
       </c>
@@ -4971,7 +4970,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>160</v>
       </c>
@@ -5003,7 +5002,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>160</v>
       </c>
@@ -5052,14 +5051,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -5070,7 +5069,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5081,7 +5080,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5092,7 +5091,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -5103,7 +5102,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -5114,7 +5113,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
@@ -5125,7 +5124,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
@@ -5133,7 +5132,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>125</v>
       </c>
@@ -5144,7 +5143,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>126</v>
       </c>
@@ -5155,7 +5154,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>127</v>
       </c>
@@ -5637,20 +5636,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
@@ -5692,14 +5677,53 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEDAE225-10BE-4FAB-AE32-ECCED12F61F4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEDAE225-10BE-4FAB-AE32-ECCED12F61F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5713,14 +5737,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>